--- a/scripts/Controller.xlsx
+++ b/scripts/Controller.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>ScenarioName</t>
   </si>
   <si>
     <t>ExecutionStatus</t>
-  </si>
-  <si>
-    <t>Scenario1</t>
   </si>
   <si>
     <t>yes</t>
@@ -401,11 +398,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -423,18 +418,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
